--- a/Version2/TestCaseSuite_v2.xlsx
+++ b/Version2/TestCaseSuite_v2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" tabRatio="613" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" tabRatio="613" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -38,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'New Account'!$A$1:$I$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$I$29</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1480,7 +1475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21">
     <font>
       <sz val="10"/>
@@ -1846,18 +1841,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1874,6 +1857,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,7 +1931,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1971,7 +1966,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2148,7 +2143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2165,15 +2160,15 @@
       <selection activeCell="E12" sqref="B7:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="55.1796875" style="13" customWidth="1"/>
-    <col min="6" max="20" width="15.1796875" style="13" customWidth="1"/>
-    <col min="21" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="15.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" style="13" customWidth="1"/>
+    <col min="6" max="20" width="15.140625" style="13" customWidth="1"/>
+    <col min="21" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1">
@@ -2200,12 +2195,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2312,16 +2307,16 @@
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="12"/>
@@ -2342,16 +2337,16 @@
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="46">
+      <c r="B8" s="42">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="44">
         <v>44896</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="43" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="21"/>
@@ -2372,16 +2367,16 @@
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="46">
+      <c r="B9" s="42">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="44">
         <v>44906</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="21"/>
@@ -2402,16 +2397,16 @@
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="46">
+      <c r="B10" s="42">
         <v>1.2</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="44">
         <v>44907</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="21"/>
@@ -2430,18 +2425,18 @@
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" s="15" customFormat="1" ht="93">
+    <row r="11" spans="1:20" s="15" customFormat="1" ht="94.5">
       <c r="A11" s="22"/>
-      <c r="B11" s="46">
+      <c r="B11" s="42">
         <v>1.3</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="44">
         <v>44908</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="22"/>
@@ -2460,18 +2455,18 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="15" customFormat="1" ht="31">
+    <row r="12" spans="1:20" s="15" customFormat="1" ht="31.5">
       <c r="A12" s="14"/>
-      <c r="B12" s="46">
+      <c r="B12" s="42">
         <v>1.4</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="44">
         <v>44908</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="46" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="14"/>
@@ -2886,7 +2881,7 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
     </row>
-    <row r="31" spans="1:20" ht="12.5">
+    <row r="31" spans="1:20">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2908,7 +2903,7 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" spans="1:20" ht="12.5">
+    <row r="32" spans="1:20">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2930,7 +2925,7 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
     </row>
-    <row r="33" spans="1:20" ht="12.5">
+    <row r="33" spans="1:20">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2952,7 +2947,7 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="1:20" ht="12.5">
+    <row r="34" spans="1:20">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2974,7 +2969,7 @@
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
     </row>
-    <row r="35" spans="1:20" ht="12.5">
+    <row r="35" spans="1:20">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2996,7 +2991,7 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="1:20" ht="12.5">
+    <row r="36" spans="1:20">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3018,7 +3013,7 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="1:20" ht="12.5">
+    <row r="37" spans="1:20">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3040,7 +3035,7 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="1:20" ht="12.5">
+    <row r="38" spans="1:20">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3062,7 +3057,7 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="1:20" ht="12.5">
+    <row r="39" spans="1:20">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3084,7 +3079,7 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="1:20" ht="12.5">
+    <row r="40" spans="1:20">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3106,7 +3101,7 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="1:20" ht="12.5">
+    <row r="41" spans="1:20">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3128,7 +3123,7 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="1:20" ht="12.5">
+    <row r="42" spans="1:20">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3150,7 +3145,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="1:20" ht="12.5">
+    <row r="43" spans="1:20">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3172,7 +3167,7 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="1:20" ht="12.5">
+    <row r="44" spans="1:20">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3194,7 +3189,7 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
     </row>
-    <row r="45" spans="1:20" ht="12.5">
+    <row r="45" spans="1:20">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3216,7 +3211,7 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
     </row>
-    <row r="46" spans="1:20" ht="12.5">
+    <row r="46" spans="1:20">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3238,7 +3233,7 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
     </row>
-    <row r="47" spans="1:20" ht="12.5">
+    <row r="47" spans="1:20">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3260,7 +3255,7 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
     </row>
-    <row r="48" spans="1:20" ht="12.5">
+    <row r="48" spans="1:20">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3282,7 +3277,7 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
     </row>
-    <row r="49" spans="1:20" ht="12.5">
+    <row r="49" spans="1:20">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3304,7 +3299,7 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
     </row>
-    <row r="50" spans="1:20" ht="12.5">
+    <row r="50" spans="1:20">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3326,7 +3321,7 @@
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
     </row>
-    <row r="51" spans="1:20" ht="12.5">
+    <row r="51" spans="1:20">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3348,7 +3343,7 @@
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
     </row>
-    <row r="52" spans="1:20" ht="12.5">
+    <row r="52" spans="1:20">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3370,7 +3365,7 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
     </row>
-    <row r="53" spans="1:20" ht="12.5">
+    <row r="53" spans="1:20">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3392,7 +3387,7 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
     </row>
-    <row r="54" spans="1:20" ht="12.5">
+    <row r="54" spans="1:20">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3414,7 +3409,7 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
     </row>
-    <row r="55" spans="1:20" ht="12.5">
+    <row r="55" spans="1:20">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3436,7 +3431,7 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
     </row>
-    <row r="56" spans="1:20" ht="12.5">
+    <row r="56" spans="1:20">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3458,7 +3453,7 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
     </row>
-    <row r="57" spans="1:20" ht="12.5">
+    <row r="57" spans="1:20">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3480,7 +3475,7 @@
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
     </row>
-    <row r="58" spans="1:20" ht="12.5">
+    <row r="58" spans="1:20">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3502,7 +3497,7 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
     </row>
-    <row r="59" spans="1:20" ht="12.5">
+    <row r="59" spans="1:20">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3524,7 +3519,7 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
     </row>
-    <row r="60" spans="1:20" ht="12.5">
+    <row r="60" spans="1:20">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3546,7 +3541,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="1:20" ht="12.5">
+    <row r="61" spans="1:20">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3568,7 +3563,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
     </row>
-    <row r="62" spans="1:20" ht="12.5">
+    <row r="62" spans="1:20">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3590,7 +3585,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
     </row>
-    <row r="63" spans="1:20" ht="12.5">
+    <row r="63" spans="1:20">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3612,7 +3607,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="12.5">
+    <row r="64" spans="1:20">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3634,7 +3629,7 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
     </row>
-    <row r="65" spans="1:20" ht="12.5">
+    <row r="65" spans="1:20">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3656,7 +3651,7 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:20" ht="12.5">
+    <row r="66" spans="1:20">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3678,7 +3673,7 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="12.5">
+    <row r="67" spans="1:20">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3700,7 +3695,7 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
     </row>
-    <row r="68" spans="1:20" ht="12.5">
+    <row r="68" spans="1:20">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3722,7 +3717,7 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
     </row>
-    <row r="69" spans="1:20" ht="12.5">
+    <row r="69" spans="1:20">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -3744,7 +3739,7 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
     </row>
-    <row r="70" spans="1:20" ht="12.5">
+    <row r="70" spans="1:20">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3766,7 +3761,7 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
     </row>
-    <row r="71" spans="1:20" ht="12.5">
+    <row r="71" spans="1:20">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3788,7 +3783,7 @@
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
     </row>
-    <row r="72" spans="1:20" ht="12.5">
+    <row r="72" spans="1:20">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3810,7 +3805,7 @@
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
     </row>
-    <row r="73" spans="1:20" ht="12.5">
+    <row r="73" spans="1:20">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3832,7 +3827,7 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" ht="12.5">
+    <row r="74" spans="1:20">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3854,7 +3849,7 @@
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
     </row>
-    <row r="75" spans="1:20" ht="12.5">
+    <row r="75" spans="1:20">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3876,7 +3871,7 @@
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
     </row>
-    <row r="76" spans="1:20" ht="12.5">
+    <row r="76" spans="1:20">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3898,7 +3893,7 @@
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
     </row>
-    <row r="77" spans="1:20" ht="12.5">
+    <row r="77" spans="1:20">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3920,7 +3915,7 @@
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
     </row>
-    <row r="78" spans="1:20" ht="12.5">
+    <row r="78" spans="1:20">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3942,7 +3937,7 @@
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
     </row>
-    <row r="79" spans="1:20" ht="12.5">
+    <row r="79" spans="1:20">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3964,7 +3959,7 @@
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
     </row>
-    <row r="80" spans="1:20" ht="12.5">
+    <row r="80" spans="1:20">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3986,7 +3981,7 @@
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
     </row>
-    <row r="81" spans="1:20" ht="12.5">
+    <row r="81" spans="1:20">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -4008,7 +4003,7 @@
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
     </row>
-    <row r="82" spans="1:20" ht="12.5">
+    <row r="82" spans="1:20">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -4030,7 +4025,7 @@
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
     </row>
-    <row r="83" spans="1:20" ht="12.5">
+    <row r="83" spans="1:20">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -4052,7 +4047,7 @@
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
     </row>
-    <row r="84" spans="1:20" ht="12.5">
+    <row r="84" spans="1:20">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -4074,7 +4069,7 @@
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
     </row>
-    <row r="85" spans="1:20" ht="12.5">
+    <row r="85" spans="1:20">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4096,7 +4091,7 @@
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
     </row>
-    <row r="86" spans="1:20" ht="12.5">
+    <row r="86" spans="1:20">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4118,7 +4113,7 @@
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
     </row>
-    <row r="87" spans="1:20" ht="12.5">
+    <row r="87" spans="1:20">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4140,7 +4135,7 @@
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
     </row>
-    <row r="88" spans="1:20" ht="12.5">
+    <row r="88" spans="1:20">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4162,7 +4157,7 @@
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
     </row>
-    <row r="89" spans="1:20" ht="12.5">
+    <row r="89" spans="1:20">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4184,7 +4179,7 @@
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" spans="1:20" ht="12.5">
+    <row r="90" spans="1:20">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4206,7 +4201,7 @@
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" spans="1:20" ht="12.5">
+    <row r="91" spans="1:20">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4228,7 +4223,7 @@
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
     </row>
-    <row r="92" spans="1:20" ht="12.5">
+    <row r="92" spans="1:20">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4250,7 +4245,7 @@
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" spans="1:20" ht="12.5">
+    <row r="93" spans="1:20">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4272,7 +4267,7 @@
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
     </row>
-    <row r="94" spans="1:20" ht="12.5">
+    <row r="94" spans="1:20">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4294,7 +4289,7 @@
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
     </row>
-    <row r="95" spans="1:20" ht="12.5">
+    <row r="95" spans="1:20">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -4316,7 +4311,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="1:20" ht="12.5">
+    <row r="96" spans="1:20">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -4338,7 +4333,7 @@
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
     </row>
-    <row r="97" spans="1:20" ht="12.5">
+    <row r="97" spans="1:20">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -4360,7 +4355,7 @@
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
     </row>
-    <row r="98" spans="1:20" ht="12.5">
+    <row r="98" spans="1:20">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4382,7 +4377,7 @@
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
     </row>
-    <row r="99" spans="1:20" ht="12.5">
+    <row r="99" spans="1:20">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4404,7 +4399,7 @@
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
     </row>
-    <row r="100" spans="1:20" ht="12.5">
+    <row r="100" spans="1:20">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4444,23 +4439,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" style="13" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="13" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -4500,11 +4495,11 @@
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>369</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -4538,11 +4533,11 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:25" ht="46.5">
+    <row r="3" spans="1:25" ht="47.25">
       <c r="A3" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>320</v>
       </c>
@@ -4579,11 +4574,11 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" spans="1:25" ht="31">
+    <row r="4" spans="1:25" ht="31.5">
       <c r="A4" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>373</v>
       </c>
@@ -6986,13 +6981,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
-    <col min="7" max="19" width="15.1796875" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7170,13 +7165,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="19" width="15.1796875" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7264,11 +7259,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="20" width="15.1796875" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7504,11 +7499,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="20" width="15.1796875" customWidth="1"/>
+    <col min="1" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7643,27 +7638,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="41.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -7706,11 +7701,11 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -7745,11 +7740,11 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="31">
+    <row r="3" spans="1:26" ht="31.5">
       <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7787,11 +7782,11 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5">
+    <row r="4" spans="1:26" ht="47.25">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>34</v>
       </c>
@@ -7829,11 +7824,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="46.5">
+    <row r="5" spans="1:26" ht="47.25">
       <c r="A5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="24" t="s">
         <v>40</v>
       </c>
@@ -7873,11 +7868,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="46.5">
+    <row r="6" spans="1:26" ht="47.25">
       <c r="A6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7917,11 +7912,11 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5">
+    <row r="7" spans="1:26" ht="47.25">
       <c r="A7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="24" t="s">
         <v>52</v>
       </c>
@@ -7961,11 +7956,11 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="46.5">
+    <row r="8" spans="1:26" ht="47.25">
       <c r="A8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="24" t="s">
         <v>57</v>
       </c>
@@ -8005,11 +8000,11 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="46.5">
+    <row r="9" spans="1:26" ht="47.25">
       <c r="A9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -8047,11 +8042,11 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="31">
+    <row r="10" spans="1:26" ht="31.5">
       <c r="A10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="24" t="s">
         <v>67</v>
       </c>
@@ -8089,11 +8084,11 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="46.5">
+    <row r="11" spans="1:26" ht="47.25">
       <c r="A11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="24" t="s">
         <v>71</v>
       </c>
@@ -8131,11 +8126,11 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="46.5">
+    <row r="12" spans="1:26" ht="47.25">
       <c r="A12" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="24" t="s">
         <v>74</v>
       </c>
@@ -8175,11 +8170,11 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="31">
+    <row r="13" spans="1:26" ht="31.5">
       <c r="A13" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -8217,11 +8212,11 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="31">
+    <row r="14" spans="1:26" ht="31.5">
       <c r="A14" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="24" t="s">
         <v>84</v>
       </c>
@@ -8259,11 +8254,11 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="46.5">
+    <row r="15" spans="1:26" ht="47.25">
       <c r="A15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="24" t="s">
         <v>88</v>
       </c>
@@ -8301,11 +8296,11 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="46.5">
+    <row r="16" spans="1:26" ht="47.25">
       <c r="A16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="24" t="s">
         <v>92</v>
       </c>
@@ -8345,11 +8340,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="31">
+    <row r="17" spans="1:26" ht="47.25">
       <c r="A17" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -8387,11 +8382,11 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="31">
+    <row r="18" spans="1:26" ht="31.5">
       <c r="A18" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="24" t="s">
         <v>102</v>
       </c>
@@ -8429,11 +8424,11 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="46.5">
+    <row r="19" spans="1:26" ht="47.25">
       <c r="A19" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="24" t="s">
         <v>108</v>
       </c>
@@ -8471,11 +8466,11 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="31">
+    <row r="20" spans="1:26" ht="31.5">
       <c r="A20" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="27" t="s">
         <v>112</v>
       </c>
@@ -8513,11 +8508,11 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="46.5">
+    <row r="21" spans="1:26" ht="47.25">
       <c r="A21" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="27" t="s">
         <v>117</v>
       </c>
@@ -8557,11 +8552,11 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="31">
+    <row r="22" spans="1:26" ht="31.5">
       <c r="A22" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="27" t="s">
         <v>121</v>
       </c>
@@ -8599,11 +8594,11 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="46.5">
+    <row r="23" spans="1:26" ht="47.25">
       <c r="A23" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -8641,11 +8636,11 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="31">
+    <row r="24" spans="1:26" ht="31.5">
       <c r="A24" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="27" t="s">
         <v>133</v>
       </c>
@@ -8683,11 +8678,11 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="46.5">
+    <row r="25" spans="1:26" ht="47.25">
       <c r="A25" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="27" t="s">
         <v>137</v>
       </c>
@@ -8725,11 +8720,11 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="31">
+    <row r="26" spans="1:26" ht="31.5">
       <c r="A26" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="27" t="s">
         <v>141</v>
       </c>
@@ -8767,11 +8762,11 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="46.5">
+    <row r="27" spans="1:26" ht="47.25">
       <c r="A27" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="24" t="s">
         <v>145</v>
       </c>
@@ -8811,11 +8806,11 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="31">
+    <row r="28" spans="1:26" ht="31.5">
       <c r="A28" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="49" t="s">
         <v>149</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -8853,11 +8848,11 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="31">
+    <row r="29" spans="1:26" ht="31.5">
       <c r="A29" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="24" t="s">
         <v>155</v>
       </c>
@@ -8897,11 +8892,11 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="46.5">
+    <row r="30" spans="1:26" ht="47.25">
       <c r="A30" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="24" t="s">
         <v>161</v>
       </c>
@@ -8941,7 +8936,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="12.5">
+    <row r="31" spans="1:26">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8969,7 +8964,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="12.5">
+    <row r="32" spans="1:26">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -8997,7 +8992,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="12.5">
+    <row r="33" spans="1:26">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -9025,7 +9020,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="12.5">
+    <row r="34" spans="1:26">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -9053,7 +9048,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="12.5">
+    <row r="35" spans="1:26">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -9081,7 +9076,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="12.5">
+    <row r="36" spans="1:26">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -9109,7 +9104,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="12.5">
+    <row r="37" spans="1:26">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -9137,7 +9132,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="12.5">
+    <row r="38" spans="1:26">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -9165,7 +9160,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="12.5">
+    <row r="39" spans="1:26">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -9193,7 +9188,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="12.5">
+    <row r="40" spans="1:26">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -9221,7 +9216,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="12.5">
+    <row r="41" spans="1:26">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -9249,7 +9244,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="12.5">
+    <row r="42" spans="1:26">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -9277,7 +9272,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="12.5">
+    <row r="43" spans="1:26">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -9305,7 +9300,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="12.5">
+    <row r="44" spans="1:26">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -9333,7 +9328,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="12.5">
+    <row r="45" spans="1:26">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -9361,7 +9356,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="12.5">
+    <row r="46" spans="1:26">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -9389,7 +9384,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="12.5">
+    <row r="47" spans="1:26">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9417,7 +9412,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="12.5">
+    <row r="48" spans="1:26">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -9445,7 +9440,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="12.5">
+    <row r="49" spans="1:26">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -9473,7 +9468,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="12.5">
+    <row r="50" spans="1:26">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -9501,7 +9496,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="12.5">
+    <row r="51" spans="1:26">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9529,7 +9524,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="12.5">
+    <row r="52" spans="1:26">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -9557,7 +9552,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="12.5">
+    <row r="53" spans="1:26">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -9585,7 +9580,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="12.5">
+    <row r="54" spans="1:26">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -9613,7 +9608,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="12.5">
+    <row r="55" spans="1:26">
       <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -9641,7 +9636,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="12.5">
+    <row r="56" spans="1:26">
       <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -9669,7 +9664,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="12.5">
+    <row r="57" spans="1:26">
       <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -9697,7 +9692,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="12.5">
+    <row r="58" spans="1:26">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -9725,7 +9720,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="12.5">
+    <row r="59" spans="1:26">
       <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9753,7 +9748,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="12.5">
+    <row r="60" spans="1:26">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -9781,7 +9776,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="12.5">
+    <row r="61" spans="1:26">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -9809,7 +9804,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="12.5">
+    <row r="62" spans="1:26">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -9837,7 +9832,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="12.5">
+    <row r="63" spans="1:26">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -9865,7 +9860,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="12.5">
+    <row r="64" spans="1:26">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -9893,7 +9888,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="12.5">
+    <row r="65" spans="1:26">
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -9921,7 +9916,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="12.5">
+    <row r="66" spans="1:26">
       <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -9949,7 +9944,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="12.5">
+    <row r="67" spans="1:26">
       <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -9977,7 +9972,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="12.5">
+    <row r="68" spans="1:26">
       <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -10002,7 +9997,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="12.5">
+    <row r="69" spans="1:26">
       <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -10027,7 +10022,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="12.5">
+    <row r="70" spans="1:26">
       <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -10052,7 +10047,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="12.5">
+    <row r="71" spans="1:26">
       <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -10077,7 +10072,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="12.5">
+    <row r="72" spans="1:26">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -10102,7 +10097,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="12.5">
+    <row r="73" spans="1:26">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -10127,7 +10122,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="12.5">
+    <row r="74" spans="1:26">
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -10152,7 +10147,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="12.5">
+    <row r="75" spans="1:26">
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -10177,7 +10172,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="12.5">
+    <row r="76" spans="1:26">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -10202,7 +10197,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="12.5">
+    <row r="77" spans="1:26">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -10227,7 +10222,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="12.5">
+    <row r="78" spans="1:26">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -10252,7 +10247,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="12.5">
+    <row r="79" spans="1:26">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -10277,7 +10272,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="12.5">
+    <row r="80" spans="1:26">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -10302,7 +10297,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="12.5">
+    <row r="81" spans="1:23">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -10327,7 +10322,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="12.5">
+    <row r="82" spans="1:23">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -10352,7 +10347,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="12.5">
+    <row r="83" spans="1:23">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -10377,7 +10372,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="12.5">
+    <row r="84" spans="1:23">
       <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -10402,7 +10397,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="12.5">
+    <row r="85" spans="1:23">
       <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -10427,7 +10422,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="12.5">
+    <row r="86" spans="1:23">
       <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -10452,7 +10447,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="12.5">
+    <row r="87" spans="1:23">
       <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -10477,7 +10472,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="12.5">
+    <row r="88" spans="1:23">
       <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -10502,7 +10497,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="12.5">
+    <row r="89" spans="1:23">
       <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -10527,7 +10522,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="12.5">
+    <row r="90" spans="1:23">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -10552,7 +10547,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="12.5">
+    <row r="91" spans="1:23">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -10577,7 +10572,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="12.5">
+    <row r="92" spans="1:23">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -10602,7 +10597,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="12.5">
+    <row r="93" spans="1:23">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -10627,7 +10622,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="12.5">
+    <row r="94" spans="1:23">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -10652,7 +10647,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="12.5">
+    <row r="95" spans="1:23">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -10677,7 +10672,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="12.5">
+    <row r="96" spans="1:23">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -10702,7 +10697,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="12.5">
+    <row r="97" spans="1:23">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -10727,7 +10722,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="12.5">
+    <row r="98" spans="1:23">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -10752,7 +10747,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="12.5">
+    <row r="99" spans="1:23">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -10777,7 +10772,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="12.5">
+    <row r="100" spans="1:23">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -10802,7 +10797,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="12.5">
+    <row r="101" spans="1:23">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -10827,49 +10822,6 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="12.5"/>
-    <row r="103" spans="1:23" ht="12.5"/>
-    <row r="104" spans="1:23" ht="12.5"/>
-    <row r="105" spans="1:23" ht="12.5"/>
-    <row r="106" spans="1:23" ht="12.5"/>
-    <row r="107" spans="1:23" ht="12.5"/>
-    <row r="108" spans="1:23" ht="12.5"/>
-    <row r="109" spans="1:23" ht="12.5"/>
-    <row r="110" spans="1:23" ht="12.5"/>
-    <row r="111" spans="1:23" ht="12.5"/>
-    <row r="112" spans="1:23" ht="12.5"/>
-    <row r="113" ht="12.5"/>
-    <row r="114" ht="12.5"/>
-    <row r="115" ht="12.5"/>
-    <row r="116" ht="12.5"/>
-    <row r="117" ht="12.5"/>
-    <row r="118" ht="12.5"/>
-    <row r="119" ht="12.5"/>
-    <row r="120" ht="12.5"/>
-    <row r="121" ht="12.5"/>
-    <row r="122" ht="12.5"/>
-    <row r="123" ht="12.5"/>
-    <row r="124" ht="12.5"/>
-    <row r="125" ht="12.5"/>
-    <row r="126" ht="12.5"/>
-    <row r="127" ht="12.5"/>
-    <row r="128" ht="12.5"/>
-    <row r="129" ht="12.5"/>
-    <row r="130" ht="12.5"/>
-    <row r="131" ht="12.5"/>
-    <row r="132" ht="12.5"/>
-    <row r="133" ht="12.5"/>
-    <row r="134" ht="12.5"/>
-    <row r="135" ht="12.5"/>
-    <row r="136" ht="12.5"/>
-    <row r="137" ht="12.5"/>
-    <row r="138" ht="12.5"/>
-    <row r="139" ht="12.5"/>
-    <row r="140" ht="12.5"/>
-    <row r="141" ht="12.5"/>
-    <row r="142" ht="12.5"/>
-    <row r="143" ht="12.5"/>
-    <row r="144" ht="12.5"/>
   </sheetData>
   <autoFilter ref="A1:I29"/>
   <mergeCells count="7">
@@ -10898,20 +10850,20 @@
       <selection pane="bottomLeft" activeCell="C43" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="29.7265625" style="13" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="13" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" style="13" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -10954,11 +10906,11 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -10993,11 +10945,11 @@
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" spans="1:26" ht="77.5">
+    <row r="3" spans="1:26" ht="78.75">
       <c r="A3" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>171</v>
       </c>
@@ -11034,11 +10986,11 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5">
+    <row r="4" spans="1:26" ht="47.25">
       <c r="A4" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>177</v>
       </c>
@@ -11073,7 +11025,7 @@
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
     </row>
-    <row r="5" spans="1:26" ht="62">
+    <row r="5" spans="1:26" ht="63">
       <c r="A5" s="29" t="s">
         <v>180</v>
       </c>
@@ -11114,11 +11066,11 @@
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
     </row>
-    <row r="6" spans="1:26" ht="46.5">
+    <row r="6" spans="1:26" ht="47.25">
       <c r="A6" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -11155,11 +11107,11 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5">
+    <row r="7" spans="1:26" ht="47.25">
       <c r="A7" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="24" t="s">
         <v>52</v>
       </c>
@@ -11199,11 +11151,11 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="46.5">
+    <row r="8" spans="1:26" ht="47.25">
       <c r="A8" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="24" t="s">
         <v>57</v>
       </c>
@@ -11243,11 +11195,11 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="31">
+    <row r="9" spans="1:26" ht="31.5">
       <c r="A9" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -11287,11 +11239,11 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="31">
+    <row r="10" spans="1:26" ht="31.5">
       <c r="A10" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="24" t="s">
         <v>67</v>
       </c>
@@ -11326,11 +11278,11 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="46.5">
+    <row r="11" spans="1:26" ht="47.25">
       <c r="A11" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="24" t="s">
         <v>71</v>
       </c>
@@ -11365,11 +11317,11 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="46.5">
+    <row r="12" spans="1:26" ht="47.25">
       <c r="A12" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="24" t="s">
         <v>74</v>
       </c>
@@ -11404,11 +11356,11 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="31">
+    <row r="13" spans="1:26" ht="31.5">
       <c r="A13" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -11443,11 +11395,11 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="31">
+    <row r="14" spans="1:26" ht="31.5">
       <c r="A14" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="24" t="s">
         <v>84</v>
       </c>
@@ -11482,11 +11434,11 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="46.5">
+    <row r="15" spans="1:26" ht="47.25">
       <c r="A15" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="24" t="s">
         <v>88</v>
       </c>
@@ -11521,11 +11473,11 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:26" ht="46.5">
+    <row r="16" spans="1:26" ht="47.25">
       <c r="A16" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="24" t="s">
         <v>92</v>
       </c>
@@ -11560,11 +11512,11 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21" ht="31">
+    <row r="17" spans="1:21" ht="47.25">
       <c r="A17" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="24" t="s">
@@ -11599,11 +11551,11 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21" ht="31">
+    <row r="18" spans="1:21" ht="31.5">
       <c r="A18" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="24" t="s">
         <v>102</v>
       </c>
@@ -11638,11 +11590,11 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21" ht="46.5">
+    <row r="19" spans="1:21" ht="47.25">
       <c r="A19" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="24" t="s">
         <v>108</v>
       </c>
@@ -11677,11 +11629,11 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:21" ht="31">
+    <row r="20" spans="1:21" ht="31.5">
       <c r="A20" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="27" t="s">
         <v>112</v>
       </c>
@@ -11716,11 +11668,11 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:21" ht="46.5">
+    <row r="21" spans="1:21" ht="47.25">
       <c r="A21" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="30" t="s">
         <v>117</v>
       </c>
@@ -11755,11 +11707,11 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:21" ht="31">
+    <row r="22" spans="1:21" ht="31.5">
       <c r="A22" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="24" t="s">
         <v>121</v>
       </c>
@@ -11794,11 +11746,11 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:21" ht="46.5">
+    <row r="23" spans="1:21" ht="47.25">
       <c r="A23" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -11833,11 +11785,11 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="1:21" ht="31">
+    <row r="24" spans="1:21" ht="31.5">
       <c r="A24" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="24" t="s">
         <v>133</v>
       </c>
@@ -11872,11 +11824,11 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:21" ht="46.5">
+    <row r="25" spans="1:21" ht="47.25">
       <c r="A25" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="24" t="s">
         <v>137</v>
       </c>
@@ -11911,11 +11863,11 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:21" ht="31">
+    <row r="26" spans="1:21" ht="31.5">
       <c r="A26" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="27" t="s">
         <v>223</v>
       </c>
@@ -11950,11 +11902,11 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:21" ht="46.5">
+    <row r="27" spans="1:21" ht="47.25">
       <c r="A27" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="24" t="s">
         <v>145</v>
       </c>
@@ -11989,11 +11941,11 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="31">
+    <row r="28" spans="1:21" ht="31.5">
       <c r="A28" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="49" t="s">
         <v>149</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -12028,11 +11980,11 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:21" ht="31">
+    <row r="29" spans="1:21" ht="31.5">
       <c r="A29" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="24" t="s">
         <v>155</v>
       </c>
@@ -12067,11 +12019,11 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21" ht="46.5">
+    <row r="30" spans="1:21" ht="47.25">
       <c r="A30" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="24" t="s">
         <v>161</v>
       </c>
@@ -14065,20 +14017,20 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="7" width="40.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="13" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="40.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="13" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -14121,11 +14073,11 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -14160,11 +14112,11 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="62">
+    <row r="3" spans="1:26" ht="63">
       <c r="A3" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>171</v>
       </c>
@@ -14204,11 +14156,11 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="31">
+    <row r="4" spans="1:26" ht="31.5">
       <c r="A4" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>177</v>
       </c>
@@ -14246,11 +14198,11 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="31">
+    <row r="5" spans="1:26" ht="31.5">
       <c r="A5" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="27" t="s">
         <v>237</v>
       </c>
@@ -14290,11 +14242,11 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="46.5">
+    <row r="6" spans="1:26" ht="47.25">
       <c r="A6" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="24" t="s">
         <v>242</v>
       </c>
@@ -16742,20 +16694,20 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="7" width="44.1796875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="13" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="44.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="13" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
@@ -16798,11 +16750,11 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -16839,11 +16791,11 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="31">
+    <row r="3" spans="1:26" ht="31.5">
       <c r="A3" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>171</v>
       </c>
@@ -16883,11 +16835,11 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5">
+    <row r="4" spans="1:26" ht="47.25">
       <c r="A4" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>177</v>
       </c>
@@ -16927,11 +16879,11 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="31">
+    <row r="5" spans="1:26" ht="31.5">
       <c r="A5" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="27" t="s">
         <v>237</v>
       </c>
@@ -16971,11 +16923,11 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="46.5">
+    <row r="6" spans="1:26" ht="47.25">
       <c r="A6" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="24" t="s">
         <v>242</v>
       </c>
@@ -17015,11 +16967,11 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5">
+    <row r="7" spans="1:26" ht="47.25">
       <c r="A7" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -17054,11 +17006,11 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="31">
+    <row r="8" spans="1:26" ht="31.5">
       <c r="A8" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="24" t="s">
         <v>259</v>
       </c>
@@ -17093,11 +17045,11 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="46.5">
+    <row r="9" spans="1:26" ht="47.25">
       <c r="A9" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="24" t="s">
         <v>263</v>
       </c>
@@ -17132,11 +17084,11 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="31">
+    <row r="10" spans="1:26" ht="31.5">
       <c r="A10" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="27" t="s">
         <v>267</v>
       </c>
@@ -17171,11 +17123,11 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="46.5">
+    <row r="11" spans="1:26" ht="47.25">
       <c r="A11" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="24" t="s">
         <v>270</v>
       </c>
@@ -17210,7 +17162,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="12.5">
+    <row r="12" spans="1:26">
       <c r="A12" s="12"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14"/>
@@ -17233,7 +17185,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="12.5">
+    <row r="13" spans="1:26">
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14"/>
@@ -17256,7 +17208,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="12.5">
+    <row r="14" spans="1:26">
       <c r="A14" s="12"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14"/>
@@ -17279,7 +17231,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="12.5">
+    <row r="15" spans="1:26">
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
       <c r="C15" s="14"/>
@@ -17302,7 +17254,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:26" ht="12.5">
+    <row r="16" spans="1:26">
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
       <c r="C16" s="14"/>
@@ -17325,7 +17277,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="12.5">
+    <row r="17" spans="1:26">
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
       <c r="C17" s="14"/>
@@ -17348,7 +17300,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:26" ht="12.5">
+    <row r="18" spans="1:26">
       <c r="A18" s="12"/>
       <c r="B18" s="18"/>
       <c r="C18" s="14"/>
@@ -17371,7 +17323,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:26" ht="12.5">
+    <row r="19" spans="1:26">
       <c r="A19" s="12"/>
       <c r="B19" s="18"/>
       <c r="C19" s="14"/>
@@ -17394,7 +17346,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:26" ht="12.5">
+    <row r="20" spans="1:26">
       <c r="A20" s="12"/>
       <c r="B20" s="18"/>
       <c r="C20" s="14"/>
@@ -17417,7 +17369,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="12.5">
+    <row r="21" spans="1:26">
       <c r="A21" s="12"/>
       <c r="B21" s="18"/>
       <c r="C21" s="14"/>
@@ -17440,7 +17392,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:26" ht="12.5">
+    <row r="22" spans="1:26">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
       <c r="C22" s="14"/>
@@ -17463,7 +17415,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="12.5">
+    <row r="23" spans="1:26">
       <c r="A23" s="12"/>
       <c r="B23" s="18"/>
       <c r="C23" s="14"/>
@@ -17486,7 +17438,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="1:26" ht="12.5">
+    <row r="24" spans="1:26">
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
       <c r="C24" s="14"/>
@@ -17509,7 +17461,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:26" ht="12.5">
+    <row r="25" spans="1:26">
       <c r="A25" s="12"/>
       <c r="B25" s="18"/>
       <c r="C25" s="14"/>
@@ -17532,7 +17484,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:26" ht="12.5">
+    <row r="26" spans="1:26">
       <c r="A26" s="12"/>
       <c r="B26" s="18"/>
       <c r="C26" s="14"/>
@@ -17555,7 +17507,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:26" ht="12.5">
+    <row r="27" spans="1:26">
       <c r="A27" s="12"/>
       <c r="B27" s="18"/>
       <c r="C27" s="14"/>
@@ -17578,7 +17530,7 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:26" ht="12.5">
+    <row r="28" spans="1:26">
       <c r="A28" s="12"/>
       <c r="B28" s="18"/>
       <c r="C28" s="14"/>
@@ -17601,7 +17553,7 @@
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="12.5">
+    <row r="29" spans="1:26">
       <c r="A29" s="12"/>
       <c r="B29" s="18"/>
       <c r="C29" s="14"/>
@@ -17624,7 +17576,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:26" ht="12.5">
+    <row r="30" spans="1:26">
       <c r="A30" s="12"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -17652,7 +17604,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" ht="12.5">
+    <row r="31" spans="1:26">
       <c r="A31" s="12"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -17680,7 +17632,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="1:26" ht="12.5">
+    <row r="32" spans="1:26">
       <c r="A32" s="12"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -17708,7 +17660,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" ht="12.5">
+    <row r="33" spans="1:26">
       <c r="A33" s="12"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -17736,7 +17688,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" ht="12.5">
+    <row r="34" spans="1:26">
       <c r="A34" s="12"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -17764,7 +17716,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="12.5">
+    <row r="35" spans="1:26">
       <c r="A35" s="12"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -17792,7 +17744,7 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:26" ht="12.5">
+    <row r="36" spans="1:26">
       <c r="A36" s="12"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -17820,7 +17772,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" ht="12.5">
+    <row r="37" spans="1:26">
       <c r="A37" s="12"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -17848,7 +17800,7 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" spans="1:26" ht="12.5">
+    <row r="38" spans="1:26">
       <c r="A38" s="12"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -17876,7 +17828,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
     </row>
-    <row r="39" spans="1:26" ht="12.5">
+    <row r="39" spans="1:26">
       <c r="A39" s="12"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -17904,7 +17856,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
     </row>
-    <row r="40" spans="1:26" ht="12.5">
+    <row r="40" spans="1:26">
       <c r="A40" s="12"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -17932,7 +17884,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
-    <row r="41" spans="1:26" ht="12.5">
+    <row r="41" spans="1:26">
       <c r="A41" s="12"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -17960,7 +17912,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" spans="1:26" ht="12.5">
+    <row r="42" spans="1:26">
       <c r="A42" s="12"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -17988,7 +17940,7 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
     </row>
-    <row r="43" spans="1:26" ht="12.5">
+    <row r="43" spans="1:26">
       <c r="A43" s="12"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -18016,7 +17968,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
-    <row r="44" spans="1:26" ht="12.5">
+    <row r="44" spans="1:26">
       <c r="A44" s="12"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -18044,7 +17996,7 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
     </row>
-    <row r="45" spans="1:26" ht="12.5">
+    <row r="45" spans="1:26">
       <c r="A45" s="12"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -18072,7 +18024,7 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
-    <row r="46" spans="1:26" ht="12.5">
+    <row r="46" spans="1:26">
       <c r="A46" s="12"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -18100,7 +18052,7 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
     </row>
-    <row r="47" spans="1:26" ht="12.5">
+    <row r="47" spans="1:26">
       <c r="A47" s="12"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -18128,7 +18080,7 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
     </row>
-    <row r="48" spans="1:26" ht="12.5">
+    <row r="48" spans="1:26">
       <c r="A48" s="12"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -18156,7 +18108,7 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
-    <row r="49" spans="1:26" ht="12.5">
+    <row r="49" spans="1:26">
       <c r="A49" s="12"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -18184,7 +18136,7 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
     </row>
-    <row r="50" spans="1:26" ht="12.5">
+    <row r="50" spans="1:26">
       <c r="A50" s="12"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -18212,7 +18164,7 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
     </row>
-    <row r="51" spans="1:26" ht="12.5">
+    <row r="51" spans="1:26">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -18240,7 +18192,7 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
     </row>
-    <row r="52" spans="1:26" ht="12.5">
+    <row r="52" spans="1:26">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -18268,7 +18220,7 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
     </row>
-    <row r="53" spans="1:26" ht="12.5">
+    <row r="53" spans="1:26">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -18296,7 +18248,7 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
     </row>
-    <row r="54" spans="1:26" ht="12.5">
+    <row r="54" spans="1:26">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -18324,7 +18276,7 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
     </row>
-    <row r="55" spans="1:26" ht="12.5">
+    <row r="55" spans="1:26">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -18352,7 +18304,7 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
     </row>
-    <row r="56" spans="1:26" ht="12.5">
+    <row r="56" spans="1:26">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -18380,7 +18332,7 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
     </row>
-    <row r="57" spans="1:26" ht="12.5">
+    <row r="57" spans="1:26">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -18408,7 +18360,7 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
     </row>
-    <row r="58" spans="1:26" ht="12.5">
+    <row r="58" spans="1:26">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -18436,7 +18388,7 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
     </row>
-    <row r="59" spans="1:26" ht="12.5">
+    <row r="59" spans="1:26">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -18464,7 +18416,7 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
     </row>
-    <row r="60" spans="1:26" ht="12.5">
+    <row r="60" spans="1:26">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -18492,7 +18444,7 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
     </row>
-    <row r="61" spans="1:26" ht="12.5">
+    <row r="61" spans="1:26">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -18520,7 +18472,7 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
     </row>
-    <row r="62" spans="1:26" ht="12.5">
+    <row r="62" spans="1:26">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -18548,7 +18500,7 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
     </row>
-    <row r="63" spans="1:26" ht="12.5">
+    <row r="63" spans="1:26">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -18576,7 +18528,7 @@
       <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
     </row>
-    <row r="64" spans="1:26" ht="12.5">
+    <row r="64" spans="1:26">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -18604,7 +18556,7 @@
       <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
     </row>
-    <row r="65" spans="1:26" ht="12.5">
+    <row r="65" spans="1:26">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -18632,7 +18584,7 @@
       <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
     </row>
-    <row r="66" spans="1:26" ht="12.5">
+    <row r="66" spans="1:26">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -18660,7 +18612,7 @@
       <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
     </row>
-    <row r="67" spans="1:26" ht="12.5">
+    <row r="67" spans="1:26">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -18685,7 +18637,7 @@
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
     </row>
-    <row r="68" spans="1:26" ht="12.5">
+    <row r="68" spans="1:26">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -18710,7 +18662,7 @@
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
     </row>
-    <row r="69" spans="1:26" ht="12.5">
+    <row r="69" spans="1:26">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -18735,7 +18687,7 @@
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
     </row>
-    <row r="70" spans="1:26" ht="12.5">
+    <row r="70" spans="1:26">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -18760,7 +18712,7 @@
       <c r="V70" s="12"/>
       <c r="W70" s="12"/>
     </row>
-    <row r="71" spans="1:26" ht="12.5">
+    <row r="71" spans="1:26">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -18785,7 +18737,7 @@
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
     </row>
-    <row r="72" spans="1:26" ht="12.5">
+    <row r="72" spans="1:26">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -18810,7 +18762,7 @@
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
     </row>
-    <row r="73" spans="1:26" ht="12.5">
+    <row r="73" spans="1:26">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -18835,7 +18787,7 @@
       <c r="V73" s="12"/>
       <c r="W73" s="12"/>
     </row>
-    <row r="74" spans="1:26" ht="12.5">
+    <row r="74" spans="1:26">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -18860,7 +18812,7 @@
       <c r="V74" s="12"/>
       <c r="W74" s="12"/>
     </row>
-    <row r="75" spans="1:26" ht="12.5">
+    <row r="75" spans="1:26">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -18885,7 +18837,7 @@
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
     </row>
-    <row r="76" spans="1:26" ht="12.5">
+    <row r="76" spans="1:26">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -18910,7 +18862,7 @@
       <c r="V76" s="12"/>
       <c r="W76" s="12"/>
     </row>
-    <row r="77" spans="1:26" ht="12.5">
+    <row r="77" spans="1:26">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -18935,7 +18887,7 @@
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
     </row>
-    <row r="78" spans="1:26" ht="12.5">
+    <row r="78" spans="1:26">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -18960,7 +18912,7 @@
       <c r="V78" s="12"/>
       <c r="W78" s="12"/>
     </row>
-    <row r="79" spans="1:26" ht="12.5">
+    <row r="79" spans="1:26">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -18985,7 +18937,7 @@
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
     </row>
-    <row r="80" spans="1:26" ht="12.5">
+    <row r="80" spans="1:26">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -19010,7 +18962,7 @@
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
     </row>
-    <row r="81" spans="1:23" ht="12.5">
+    <row r="81" spans="1:23">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -19035,7 +18987,7 @@
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
     </row>
-    <row r="82" spans="1:23" ht="12.5">
+    <row r="82" spans="1:23">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -19060,7 +19012,7 @@
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
     </row>
-    <row r="83" spans="1:23" ht="12.5">
+    <row r="83" spans="1:23">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -19085,7 +19037,7 @@
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
     </row>
-    <row r="84" spans="1:23" ht="12.5">
+    <row r="84" spans="1:23">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -19110,7 +19062,7 @@
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
     </row>
-    <row r="85" spans="1:23" ht="12.5">
+    <row r="85" spans="1:23">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -19135,7 +19087,7 @@
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
     </row>
-    <row r="86" spans="1:23" ht="12.5">
+    <row r="86" spans="1:23">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -19160,7 +19112,7 @@
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
     </row>
-    <row r="87" spans="1:23" ht="12.5">
+    <row r="87" spans="1:23">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -19185,7 +19137,7 @@
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
     </row>
-    <row r="88" spans="1:23" ht="12.5">
+    <row r="88" spans="1:23">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -19210,7 +19162,7 @@
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
     </row>
-    <row r="89" spans="1:23" ht="12.5">
+    <row r="89" spans="1:23">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -19235,7 +19187,7 @@
       <c r="V89" s="12"/>
       <c r="W89" s="12"/>
     </row>
-    <row r="90" spans="1:23" ht="12.5">
+    <row r="90" spans="1:23">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -19260,7 +19212,7 @@
       <c r="V90" s="12"/>
       <c r="W90" s="12"/>
     </row>
-    <row r="91" spans="1:23" ht="12.5">
+    <row r="91" spans="1:23">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -19285,7 +19237,7 @@
       <c r="V91" s="12"/>
       <c r="W91" s="12"/>
     </row>
-    <row r="92" spans="1:23" ht="12.5">
+    <row r="92" spans="1:23">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -19310,7 +19262,7 @@
       <c r="V92" s="12"/>
       <c r="W92" s="12"/>
     </row>
-    <row r="93" spans="1:23" ht="12.5">
+    <row r="93" spans="1:23">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -19335,7 +19287,7 @@
       <c r="V93" s="12"/>
       <c r="W93" s="12"/>
     </row>
-    <row r="94" spans="1:23" ht="12.5">
+    <row r="94" spans="1:23">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -19360,7 +19312,7 @@
       <c r="V94" s="12"/>
       <c r="W94" s="12"/>
     </row>
-    <row r="95" spans="1:23" ht="12.5">
+    <row r="95" spans="1:23">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -19385,7 +19337,7 @@
       <c r="V95" s="12"/>
       <c r="W95" s="12"/>
     </row>
-    <row r="96" spans="1:23" ht="12.5">
+    <row r="96" spans="1:23">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -19410,7 +19362,7 @@
       <c r="V96" s="12"/>
       <c r="W96" s="12"/>
     </row>
-    <row r="97" spans="1:23" ht="12.5">
+    <row r="97" spans="1:23">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -19435,7 +19387,7 @@
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>
     </row>
-    <row r="98" spans="1:23" ht="12.5">
+    <row r="98" spans="1:23">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -19460,7 +19412,7 @@
       <c r="V98" s="12"/>
       <c r="W98" s="12"/>
     </row>
-    <row r="99" spans="1:23" ht="12.5">
+    <row r="99" spans="1:23">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -19485,7 +19437,7 @@
       <c r="V99" s="12"/>
       <c r="W99" s="12"/>
     </row>
-    <row r="100" spans="1:23" ht="12.5">
+    <row r="100" spans="1:23">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -19532,20 +19484,20 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="7" width="40.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="29.7265625" style="13" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="40.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="13" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -19588,11 +19540,11 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>274</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -19627,11 +19579,11 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="31">
+    <row r="3" spans="1:26" ht="31.5">
       <c r="A3" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>280</v>
       </c>
@@ -19669,11 +19621,11 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="31">
+    <row r="4" spans="1:26" ht="31.5">
       <c r="A4" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>284</v>
       </c>
@@ -19711,11 +19663,11 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="31">
+    <row r="5" spans="1:26" ht="31.5">
       <c r="A5" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="27" t="s">
         <v>287</v>
       </c>
@@ -19753,11 +19705,11 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="46.5">
+    <row r="6" spans="1:26" ht="47.25">
       <c r="A6" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="24" t="s">
         <v>289</v>
       </c>
@@ -19792,7 +19744,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5">
+    <row r="7" spans="1:26" ht="47.25">
       <c r="A7" s="26" t="s">
         <v>291</v>
       </c>
@@ -19831,7 +19783,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="31">
+    <row r="8" spans="1:26" ht="47.25">
       <c r="A8" s="26" t="s">
         <v>297</v>
       </c>
@@ -19870,7 +19822,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="31">
+    <row r="9" spans="1:26" ht="47.25">
       <c r="A9" s="26" t="s">
         <v>304</v>
       </c>
@@ -19909,7 +19861,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="14"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -19932,7 +19884,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="14"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -19955,7 +19907,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="14"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -19978,7 +19930,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="14"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="15"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
@@ -20001,7 +19953,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="14"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="16"/>
@@ -20024,7 +19976,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="14"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -20047,7 +19999,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="14"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -20070,7 +20022,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="14"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -20093,7 +20045,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="14"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -20116,7 +20068,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="14"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="16"/>
@@ -22322,19 +22274,19 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="8" width="29.7265625" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -22377,11 +22329,11 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>274</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -22416,11 +22368,11 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="31">
+    <row r="3" spans="1:26" ht="31.5">
       <c r="A3" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>280</v>
       </c>
@@ -22458,11 +22410,11 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5">
+    <row r="4" spans="1:26" ht="47.25">
       <c r="A4" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>284</v>
       </c>
@@ -22500,11 +22452,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="31">
+    <row r="5" spans="1:26" ht="31.5">
       <c r="A5" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="27" t="s">
         <v>287</v>
       </c>
@@ -22542,11 +22494,11 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="31">
+    <row r="6" spans="1:26" ht="31.5">
       <c r="A6" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="24" t="s">
         <v>289</v>
       </c>
@@ -24994,20 +24946,20 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="29.7265625" style="13" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" style="13" customWidth="1"/>
-    <col min="24" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="13" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" style="13" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" style="13" customWidth="1"/>
+    <col min="24" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -25050,11 +25002,11 @@
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>312</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -25089,11 +25041,11 @@
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="31">
+    <row r="3" spans="1:26" ht="31.5">
       <c r="A3" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>316</v>
       </c>
@@ -25131,11 +25083,11 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5">
+    <row r="4" spans="1:26" ht="47.25">
       <c r="A4" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>320</v>
       </c>
@@ -25173,11 +25125,11 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="31">
+    <row r="5" spans="1:26" ht="31.5">
       <c r="A5" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="27" t="s">
         <v>323</v>
       </c>
@@ -25215,11 +25167,11 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="31">
+    <row r="6" spans="1:26" ht="31.5">
       <c r="A6" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="24" t="s">
         <v>325</v>
       </c>
@@ -27667,19 +27619,19 @@
       <selection pane="bottomLeft" activeCell="D19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="46.81640625" customWidth="1"/>
-    <col min="7" max="8" width="29.7265625" customWidth="1"/>
-    <col min="9" max="23" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -27722,11 +27674,11 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="46.5">
+    <row r="2" spans="1:26" ht="47.25">
       <c r="A2" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="49" t="s">
         <v>274</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -27761,11 +27713,11 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="31">
+    <row r="3" spans="1:26" ht="31.5">
       <c r="A3" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="24" t="s">
         <v>316</v>
       </c>
@@ -27803,11 +27755,11 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="46.5">
+    <row r="4" spans="1:26" ht="47.25">
       <c r="A4" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="24" t="s">
         <v>320</v>
       </c>
@@ -27845,11 +27797,11 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" s="10" customFormat="1" ht="31">
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="31.5">
       <c r="A5" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="24" t="s">
         <v>323</v>
       </c>
@@ -27889,11 +27841,11 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:26" s="10" customFormat="1" ht="31">
+    <row r="6" spans="1:26" s="10" customFormat="1" ht="31.5">
       <c r="A6" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="24" t="s">
         <v>325</v>
       </c>
@@ -27928,11 +27880,11 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5">
+    <row r="7" spans="1:26" ht="47.25">
       <c r="A7" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>334</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -27967,11 +27919,11 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="31">
+    <row r="8" spans="1:26" ht="31.5">
       <c r="A8" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="24" t="s">
         <v>340</v>
       </c>
@@ -28006,11 +27958,11 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="46.5">
+    <row r="9" spans="1:26" ht="47.25">
       <c r="A9" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="24" t="s">
         <v>344</v>
       </c>
@@ -28045,11 +27997,11 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:26" s="10" customFormat="1" ht="31">
+    <row r="10" spans="1:26" s="10" customFormat="1" ht="31.5">
       <c r="A10" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="24" t="s">
         <v>347</v>
       </c>
@@ -28084,11 +28036,11 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:26" s="10" customFormat="1" ht="46.5">
+    <row r="11" spans="1:26" s="10" customFormat="1" ht="47.25">
       <c r="A11" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="24" t="s">
         <v>349</v>
       </c>
@@ -28123,11 +28075,11 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="46.5">
+    <row r="12" spans="1:26" ht="47.25">
       <c r="A12" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="49" t="s">
         <v>352</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -28162,11 +28114,11 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="31">
+    <row r="13" spans="1:26" ht="31.5">
       <c r="A13" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="24" t="s">
         <v>357</v>
       </c>
@@ -28201,11 +28153,11 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="46.5">
+    <row r="14" spans="1:26" ht="47.25">
       <c r="A14" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="24" t="s">
         <v>361</v>
       </c>
@@ -28240,11 +28192,11 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" ht="31">
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="31.5">
       <c r="A15" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="24" t="s">
         <v>364</v>
       </c>
@@ -28279,11 +28231,11 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="10" customFormat="1" ht="46.5">
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="47.25">
       <c r="A16" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="24" t="s">
         <v>366</v>
       </c>
